--- a/medicine/Enfance/Thomas_Cobb/Thomas_Cobb.xlsx
+++ b/medicine/Enfance/Thomas_Cobb/Thomas_Cobb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Cobb, né le 8 juin 1854 à Londres et mort dans la même ville en 15 janvier 1932, est un écrivain britannique, auteur de roman policier et de littérature populaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un tailleur, il abandonne ses études à 12 ans pour travailler dans la boutique de son père pendant une vingtaine d'années. Il se lance ensuite dans une carrière de romancier et signe plus de 70 romans populaires à partir de 1889 jusqu'à sa mort, dont une bonne vingtaine de romans policiers. Quatre titres parmi ces derniers ont pour héros récurrent l'inspecteur Bedison, notamment Histoire sans issue (The Crime Without a Clue, 1929), paru en France dans la collection Le Masque.
 Thomas Cobb est le père de l'écrivain Belton Cobb.
@@ -545,13 +559,60 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Bedison
-The Crime Without a Clue (1929) Publié en français sous le titre Histoire sans issue, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 168, 1934
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Bedison</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Crime Without a Clue (1929) Publié en français sous le titre Histoire sans issue, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 168, 1934
 Inspector Bedison and the Sunderland Case (1931)
 Inspector Bedison Risk It (1931)
-Who Closed the Casement? (1932)
-Autres romans
+Who Closed the Casement? (1932)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Brownie's Plot (1889)
 For Value Received (1890)
 The House By the Common (1891)
@@ -623,48 +684,153 @@
 Crime at Keeper's (1930)
 Death on the Cliff (1932)
 The Metal Box (1933), publication posthume
-Ouvrages de littérature d'enfance et de jeunesse
-The Bountiful Lady: or, How Mary Was Changed From a Very Miserable Little Girl to a Very Happy One (1900)
-The Little Clown (1901)
-Nouvelles
-Five Years After (1903)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Bountiful Lady: or, How Mary Was Changed From a Very Miserable Little Girl to a Very Happy One (1900)
+The Little Clown (1901)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Five Years After (1903)
 The Venetian Blind (1906)
 The Green Van—The Story of a Jolly Holiday (1908)
 Bounty Sinister (1914)
 Justifying the Means (1922)
 The Upright Grand (1925)
 The Adventures of a Ring (1932)
-A Straightforward Case (1937), publication posthume
-Adaptation cinématographique
-1920 : Mrs. Erricker's Reputation, film muet britannique réalisé par Cecil M. Hepworth, d'après le roman éponyme publié en 1906</t>
+A Straightforward Case (1937), publication posthume</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thomas_Cobb</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Cobb</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adaptation cinématographique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1920 : Mrs. Erricker's Reputation, film muet britannique réalisé par Cecil M. Hepworth, d'après le roman éponyme publié en 1906</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Cobb</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 125.</t>
         </is>
